--- a/biology/Botanique/Gymnogaster_boletoides/Gymnogaster_boletoides.xlsx
+++ b/biology/Botanique/Gymnogaster_boletoides/Gymnogaster_boletoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnogaster boletoides est une espèce de champignons de la famille des Boletaceae du Sud-Est du Queensland en Australie.
 C’est, en 2013, la seule espèce connue du genre Gymnogaster.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnogaster J.W. Cribb.
 </t>
@@ -543,7 +557,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophore
 Chapeau déprimé, sec, brun foncé à brun rougeâtre à orangé brun, finement subtomenteux.
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce connue : Gymnogaster boletoides du Sud-Est du Queensland, Australie.
 Probablement mycorhiziens avec des Myrtacées.
@@ -610,9 +628,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (29 octobre 2013)[1], Index Fungorum                                      (29 octobre 2013)[2] et NCBI  (29 octobre 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (29 octobre 2013), Index Fungorum                                      (29 octobre 2013) et NCBI  (29 octobre 2013) :
 Gymnogaster boletoides J.W. Cribb 1956</t>
         </is>
       </c>
